--- a/src/Section Properties ITERATION004.xlsx
+++ b/src/Section Properties ITERATION004.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C932FC-8B57-45E1-A4E5-B54A99DFEF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2136" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="2655" windowWidth="30720" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="105">
   <si>
     <t>Name of element</t>
   </si>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,15 +569,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>1120615</xdr:colOff>
+      <xdr:colOff>983455</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>137515</xdr:rowOff>
+      <xdr:rowOff>53695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -607,7 +606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27264360" y="5547360"/>
+          <a:off x="27127200" y="5463540"/>
           <a:ext cx="5479255" cy="4099915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -926,49 +925,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
-    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1144,7 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K29" si="0">D2-$AH$3</f>
-        <v>0.65559000940666001</v>
+        <v>0.63299862233315729</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L29" si="1">E2-$AI$3</f>
@@ -1153,7 +1152,7 @@
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>0.10073396728917763</v>
+        <v>9.3911075595861357E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
@@ -1161,7 +1160,7 @@
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-7.8944923961672603E-2</v>
+        <v>-7.6224511342327606E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1184,7 +1183,7 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U29" si="3">D2-$AH$5</f>
-        <v>0.82645941497811337</v>
+        <v>0.75709173131438168</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V29" si="4">E2-$AI$5</f>
@@ -1192,7 +1191,7 @@
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>0.16008636670452314</v>
+        <v>0.13434091163076747</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
@@ -1200,7 +1199,7 @@
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-0.17156518083009506</v>
+        <v>-0.1571651038561421</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1279,14 +1278,14 @@
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>2.0420739232854045E-2</v>
+        <v>1.7138193710950198E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-2.1874560555837121E-2</v>
+        <v>-2.0038550741658119E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1327,7 +1326,7 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.37565999059333999</v>
+        <v>-0.39825137766684271</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
@@ -1335,7 +1334,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M29" si="7">C3*K3^2</f>
-        <v>3.4230909152359039E-2</v>
+        <v>3.8471854445295474E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N29" si="8">C3*L3^2</f>
@@ -1343,7 +1342,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O29" si="9">C3*K3*L3</f>
-        <v>4.6817054829925799E-2</v>
+        <v>4.9632532213167269E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1366,7 +1365,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.20479058502188663</v>
+        <v>-0.27415826868561832</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
@@ -1374,7 +1373,7 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W29" si="13">C3*U3^2</f>
-        <v>1.0172987727946432E-2</v>
+        <v>1.8231871238720759E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X29" si="14">C3*V3^2</f>
@@ -1382,7 +1381,7 @@
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y29" si="15">C3*U3*V3</f>
-        <v>4.3998195968321052E-2</v>
+        <v>5.890148334053686E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1408,7 +1407,7 @@
       </c>
       <c r="AH3">
         <f>F30/C30</f>
-        <v>-0.62434000940666001</v>
+        <v>-0.60174862233315729</v>
       </c>
       <c r="AI3">
         <f>G30/C30</f>
@@ -1420,15 +1419,15 @@
       </c>
       <c r="AK3">
         <f>I30+M30</f>
-        <v>0.61517406074010395</v>
+        <v>0.61951967228533666</v>
       </c>
       <c r="AL3">
         <f>J30+O30</f>
-        <v>-0.24999972805957893</v>
+        <v>-0.26006963909440711</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.72028867426103604</v>
+        <v>0.72068196731571987</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1467,14 +1466,14 @@
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA29" si="18">(Q3)*(I3+W3)</f>
-        <v>3.7540380690842638E-2</v>
+        <v>3.8567888338466368E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB29" si="19">(Q3)*(J3+Y3)</f>
-        <v>-4.052431974300246E-3</v>
+        <v>-2.1522628343427306E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1513,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.12565999059333999</v>
+        <v>-0.14825137766684271</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -1522,7 +1521,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>2.9607062317346805E-3</v>
+        <v>4.1209633087719057E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
@@ -1530,7 +1529,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-3.059936941113487E-2</v>
+        <v>-3.610058101641956E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1553,7 +1552,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>4.5209414978113371E-2</v>
+        <v>-2.4158268685618323E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>3.8322960049936151E-4</v>
+        <v>1.0942911485372378E-4</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
@@ -1569,7 +1568,7 @@
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>7.8560985507918953E-3</v>
+        <v>-4.1980136151420601E-3</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1648,14 +1647,14 @@
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>1.8461065440387005E-3</v>
+        <v>1.8248870064011638E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>6.0884763768637184E-4</v>
+        <v>-3.2534605517350965E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1694,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.37434000940666001</v>
+        <v>0.35174862233315729</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
@@ -1703,7 +1702,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>8.7581526651611449E-3</v>
+        <v>7.7329433320796328E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-5.4426324051341866E-2</v>
+        <v>-5.1141700119262973E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.54520941497811337</v>
+        <v>0.47584173131438168</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
@@ -1742,7 +1741,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>1.8578331636298538E-2</v>
+        <v>1.4151584578766762E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
@@ -1750,7 +1749,7 @@
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-9.1943426197306777E-2</v>
+        <v>-8.0245347755887222E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1776,7 +1775,7 @@
       </c>
       <c r="AH5">
         <f>S30/R30</f>
-        <v>-0.79520941497811337</v>
+        <v>-0.72584173131438168</v>
       </c>
       <c r="AI5">
         <f>T30/R30</f>
@@ -1788,15 +1787,15 @@
       </c>
       <c r="AK5">
         <f>BA30</f>
-        <v>0.14169414438886216</v>
+        <v>0.14741574679015049</v>
       </c>
       <c r="AL5">
         <f>BB30</f>
-        <v>-4.2443879072721007E-2</v>
+        <v>-5.2252090484207675E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>2.5619908897268544E-2</v>
+        <v>2.5798385224092876E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1831,14 +1830,14 @@
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.54073216014647E-3</v>
+        <v>1.1976592631877574E-3</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-7.1256155302912754E-3</v>
+        <v>-6.2190144510812593E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1876,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
@@ -1893,7 +1892,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>1.5205934982507292E-2</v>
+        <v>1.47475006820669E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1916,7 +1915,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
@@ -1924,7 +1923,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="14"/>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="15"/>
-        <v>1.3325498414682018E-2</v>
+        <v>1.2320989067520854E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1992,14 +1991,14 @@
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB6">
         <f t="shared" si="19"/>
-        <v>7.5289066042953396E-3</v>
+        <v>6.9613588231492822E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2037,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.87434000940666001</v>
+        <v>0.85174862233315729</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>1.1944850813269349E-2</v>
+        <v>1.1335558056975491E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="8"/>
@@ -2054,7 +2053,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>1.7742489615855176E-2</v>
+        <v>1.7284055315414784E-2</v>
       </c>
       <c r="P7">
         <v>1130</v>
@@ -2077,7 +2076,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>1.0452094149781135</v>
+        <v>0.97584173131438168</v>
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
@@ -2085,7 +2084,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>1.7069730018107659E-2</v>
+        <v>1.4879173196478905E-2</v>
       </c>
       <c r="X7">
         <f t="shared" si="14"/>
@@ -2093,7 +2092,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="15"/>
-        <v>1.5135616062603356E-2</v>
+        <v>1.4131106715442191E-2</v>
       </c>
       <c r="Z7">
         <v>7.8</v>
@@ -2153,14 +2152,14 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>9.6558924146579097E-3</v>
+        <v>8.4182278104376635E-3</v>
       </c>
       <c r="BB7">
         <f t="shared" si="19"/>
-        <v>8.5516230753708948E-3</v>
+        <v>7.9840752942248374E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +2198,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.99934000940666001</v>
+        <v>0.97674862233315729</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -2207,7 +2206,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>1.5604382100014115E-2</v>
+        <v>1.4906841737964386E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="8"/>
@@ -2215,7 +2214,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>2.0279044249203061E-2</v>
+        <v>1.9820609948762672E-2</v>
       </c>
       <c r="P8">
         <v>1130</v>
@@ -2238,7 +2237,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>1.1702094149781135</v>
+        <v>1.1008417313143817</v>
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
@@ -2246,7 +2245,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>2.1396719920365917E-2</v>
+        <v>1.8935195584425708E-2</v>
       </c>
       <c r="X8">
         <f t="shared" si="14"/>
@@ -2254,7 +2253,7 @@
       </c>
       <c r="Y8">
         <f t="shared" si="15"/>
-        <v>1.6945733710524692E-2</v>
+        <v>1.5941224363363527E-2</v>
       </c>
       <c r="Z8">
         <v>7.8</v>
@@ -2319,14 +2318,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>1.2100641709433825E-2</v>
+        <v>1.0709880459627607E-2</v>
       </c>
       <c r="BB8">
         <f t="shared" si="19"/>
-        <v>9.57433954644645E-3</v>
+        <v>9.0067917653003926E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2341,16 +2340,16 @@
         <f t="shared" ref="D9:D17" si="22">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
+      <c r="E9" s="5">
+        <v>-1.875</v>
       </c>
       <c r="F9">
         <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G9">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>-2.9296875E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="21"/>
@@ -2365,23 +2364,23 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
-      </c>
-      <c r="L9" t="e">
+        <v>0.72674862233315729</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-0.51378402772588272</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
-      </c>
-      <c r="N9" t="e">
+        <v>8.2525556259865959E-3</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>4.1245941741598537E-3</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>-5.8342474113525934E-3</v>
       </c>
       <c r="P9">
         <v>1130</v>
@@ -2398,29 +2397,29 @@
         <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
-      <c r="T9" t="e">
+      <c r="T9">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>-1.6552734374999999E-2</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
-      </c>
-      <c r="V9" t="e">
+        <v>0.85084173131438168</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>-0.88571976426427546</v>
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
-      </c>
-      <c r="X9" t="e">
+        <v>1.1311432058532101E-2</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y9" t="e">
+        <v>1.2257804700130683E-2</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>-1.177511465134347E-2</v>
       </c>
       <c r="Z9">
         <v>7.8</v>
@@ -2483,20 +2482,20 @@
       <c r="AW9" t="s">
         <v>62</v>
       </c>
-      <c r="AZ9" t="e">
+      <c r="AZ9">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>6.9371546100009188E-3</v>
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
-      </c>
-      <c r="BB9" t="e">
+        <v>6.4024540674977202E-3</v>
+      </c>
+      <c r="BB9">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>-6.65293977800906E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2534,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2543,7 +2542,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2574,7 +2573,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2582,7 +2581,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2661,14 +2660,14 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +2706,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L11" t="e">
         <f t="shared" si="1"/>
@@ -2715,7 +2714,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N11" t="e">
         <f t="shared" si="8"/>
@@ -2746,7 +2745,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V11" t="e">
         <f t="shared" si="4"/>
@@ -2754,7 +2753,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X11" t="e">
         <f t="shared" si="14"/>
@@ -2831,14 +2830,14 @@
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB11" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2877,7 +2876,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L12" t="e">
         <f t="shared" si="1"/>
@@ -2885,7 +2884,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N12" t="e">
         <f t="shared" si="8"/>
@@ -2916,7 +2915,7 @@
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V12" t="e">
         <f t="shared" si="4"/>
@@ -2924,7 +2923,7 @@
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X12" t="e">
         <f t="shared" si="14"/>
@@ -3003,14 +3002,14 @@
       </c>
       <c r="BA12">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB12" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3048,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L13" t="e">
         <f t="shared" si="1"/>
@@ -3057,7 +3056,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N13" t="e">
         <f t="shared" si="8"/>
@@ -3088,7 +3087,7 @@
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V13" t="e">
         <f t="shared" si="4"/>
@@ -3096,7 +3095,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X13" t="e">
         <f t="shared" si="14"/>
@@ -3161,14 +3160,14 @@
       </c>
       <c r="BA13">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB13" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3207,7 +3206,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L14" t="e">
         <f t="shared" si="1"/>
@@ -3215,7 +3214,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N14" t="e">
         <f t="shared" si="8"/>
@@ -3246,7 +3245,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V14" t="e">
         <f t="shared" si="4"/>
@@ -3254,7 +3253,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="13"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X14" t="e">
         <f t="shared" si="14"/>
@@ -3334,14 +3333,14 @@
       </c>
       <c r="BA14">
         <f t="shared" si="18"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB14" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -3380,7 +3379,7 @@
       </c>
       <c r="K15">
         <f t="shared" ref="K15:K28" si="24">D15-$AH$3</f>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L15" t="e">
         <f t="shared" ref="L15:L28" si="25">E15-$AI$3</f>
@@ -3388,7 +3387,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M28" si="26">C15*K15^2</f>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N15" t="e">
         <f t="shared" ref="N15:N28" si="27">C15*L15^2</f>
@@ -3419,7 +3418,7 @@
       </c>
       <c r="U15">
         <f t="shared" ref="U15:U28" si="33">D15-$AH$5</f>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V15" t="e">
         <f t="shared" ref="V15:V28" si="34">E15-$AI$5</f>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="W15">
         <f t="shared" ref="W15:W28" si="35">C15*U15^2</f>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X15" t="e">
         <f t="shared" ref="X15:X28" si="36">C15*V15^2</f>
@@ -3472,13 +3471,12 @@
         <v>0.125</v>
       </c>
       <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="1">
-        <f>1</f>
-        <v>1</v>
-      </c>
       <c r="AO15" t="s">
         <v>62</v>
       </c>
@@ -3512,14 +3510,14 @@
       </c>
       <c r="BA15">
         <f t="shared" ref="BA15:BA28" si="40">(Q15)*(I15+W15)</f>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB15" t="e">
         <f t="shared" ref="BB15:BB28" si="41">(Q15)*(J15+Y15)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3558,7 +3556,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="24"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L16" t="e">
         <f t="shared" si="25"/>
@@ -3566,7 +3564,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="26"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N16" t="e">
         <f t="shared" si="27"/>
@@ -3597,7 +3595,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="33"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V16" t="e">
         <f t="shared" si="34"/>
@@ -3605,7 +3603,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="35"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X16" t="e">
         <f t="shared" si="36"/>
@@ -3670,14 +3668,14 @@
       </c>
       <c r="BA16">
         <f t="shared" si="40"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB16" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3716,7 +3714,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="24"/>
-        <v>0.74934000940666001</v>
+        <v>0.72674862233315729</v>
       </c>
       <c r="L17" t="e">
         <f t="shared" si="25"/>
@@ -3724,7 +3722,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="26"/>
-        <v>8.7736007765245837E-3</v>
+        <v>8.2525556259865959E-3</v>
       </c>
       <c r="N17" t="e">
         <f t="shared" si="27"/>
@@ -3755,7 +3753,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="33"/>
-        <v>0.92020941497811337</v>
+        <v>0.85084173131438168</v>
       </c>
       <c r="V17" t="e">
         <f t="shared" si="34"/>
@@ -3763,7 +3761,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="35"/>
-        <v>1.32310213658494E-2</v>
+        <v>1.1311432058532101E-2</v>
       </c>
       <c r="X17" t="e">
         <f t="shared" si="36"/>
@@ -3828,14 +3826,14 @@
       </c>
       <c r="BA17">
         <f t="shared" si="40"/>
-        <v>7.4870220261319944E-3</v>
+        <v>6.4024540674977202E-3</v>
       </c>
       <c r="BB17" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3875,7 +3873,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="24"/>
-        <v>-0.98033544239333992</v>
+        <v>-1.0029268294668428</v>
       </c>
       <c r="L18">
         <f t="shared" si="25"/>
@@ -3883,7 +3881,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="26"/>
-        <v>1.5016524681446023E-2</v>
+        <v>1.5716597269756459E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="27"/>
@@ -3891,7 +3889,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="28"/>
-        <v>-1.9432369320940283E-2</v>
+        <v>-1.988017948682887E-2</v>
       </c>
       <c r="P18">
         <v>1130</v>
@@ -3914,7 +3912,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="33"/>
-        <v>-0.80946603682188656</v>
+        <v>-0.87883372048561825</v>
       </c>
       <c r="V18">
         <f t="shared" si="34"/>
@@ -3922,7 +3920,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="35"/>
-        <v>1.0238051012002059E-2</v>
+        <v>1.2067948566603029E-2</v>
       </c>
       <c r="X18">
         <f t="shared" si="36"/>
@@ -3930,7 +3928,7 @@
       </c>
       <c r="Y18">
         <f t="shared" si="37"/>
-        <v>-1.1341159503759584E-2</v>
+        <v>-1.2313047055614741E-2</v>
       </c>
       <c r="Z18">
         <v>7.8</v>
@@ -3987,14 +3985,14 @@
       </c>
       <c r="BA18">
         <f t="shared" si="40"/>
-        <v>5.7959937762082463E-3</v>
+        <v>6.8298858945577941E-3</v>
       </c>
       <c r="BB18">
         <f t="shared" si="41"/>
-        <v>-6.407755119624165E-3</v>
+        <v>-6.9568715864223281E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4034,7 +4032,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="24"/>
-        <v>-1.1011148097933401</v>
+        <v>-1.1237061968668427</v>
       </c>
       <c r="L19">
         <f t="shared" si="25"/>
@@ -4042,7 +4040,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="26"/>
-        <v>1.8944591005409742E-2</v>
+        <v>1.972993151370224E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="27"/>
@@ -4050,7 +4048,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="28"/>
-        <v>-2.1272344548997547E-2</v>
+        <v>-2.1708785658855579E-2</v>
       </c>
       <c r="P19">
         <v>1130</v>
@@ -4073,7 +4071,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="33"/>
-        <v>-0.93024540422188673</v>
+        <v>-0.99961308788561842</v>
       </c>
       <c r="V19">
         <f t="shared" si="34"/>
@@ -4081,7 +4079,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="35"/>
-        <v>1.3521195501186585E-2</v>
+        <v>1.5612911335503455E-2</v>
       </c>
       <c r="X19">
         <f t="shared" si="36"/>
@@ -4089,7 +4087,7 @@
       </c>
       <c r="Y19">
         <f t="shared" si="37"/>
-        <v>-1.2565215513590343E-2</v>
+        <v>-1.3502193961382218E-2</v>
       </c>
       <c r="Z19">
         <v>7.8</v>
@@ -4146,14 +4144,14 @@
       </c>
       <c r="BA19">
         <f t="shared" si="40"/>
-        <v>7.6509704125975039E-3</v>
+        <v>8.8327898589865336E-3</v>
       </c>
       <c r="BB19">
         <f t="shared" si="41"/>
-        <v>-7.0993467651785432E-3</v>
+        <v>-7.6287395881809526E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4191,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="24"/>
-        <v>-1.22189417729334</v>
+        <v>-1.2444855643668427</v>
       </c>
       <c r="L20">
         <f t="shared" si="25"/>
@@ -4201,7 +4199,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="26"/>
-        <v>2.3328521570365131E-2</v>
+        <v>2.4199129998710295E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="27"/>
@@ -4209,7 +4207,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="28"/>
-        <v>-2.2990755983913778E-2</v>
+        <v>-2.3415828037776552E-2</v>
       </c>
       <c r="P20">
         <v>1130</v>
@@ -4232,7 +4230,7 @@
       </c>
       <c r="U20">
         <f t="shared" si="33"/>
-        <v>-1.0510247717218868</v>
+        <v>-1.1203924553856184</v>
       </c>
       <c r="V20">
         <f t="shared" si="34"/>
@@ -4240,7 +4238,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="35"/>
-        <v>1.7260204230828816E-2</v>
+        <v>1.9613738345078357E-2</v>
       </c>
       <c r="X20">
         <f t="shared" si="36"/>
@@ -4248,7 +4246,7 @@
       </c>
       <c r="Y20">
         <f t="shared" si="37"/>
-        <v>-1.3667707729431933E-2</v>
+        <v>-1.4569777073268913E-2</v>
       </c>
       <c r="Z20">
         <v>7.8</v>
@@ -4305,14 +4303,14 @@
       </c>
       <c r="BA20">
         <f t="shared" si="40"/>
-        <v>9.7635103448453619E-3</v>
+        <v>1.1093257119396353E-2</v>
       </c>
       <c r="BB20">
         <f t="shared" si="41"/>
-        <v>-7.7222548671290409E-3</v>
+        <v>-8.2319240463969347E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4352,7 +4350,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="24"/>
-        <v>-1.34267354469334</v>
+        <v>-1.3652649317668426</v>
       </c>
       <c r="L21">
         <f t="shared" si="25"/>
@@ -4360,7 +4358,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="26"/>
-        <v>2.8168316369052787E-2</v>
+        <v>2.912419271738002E-2</v>
       </c>
       <c r="N21">
         <f t="shared" si="27"/>
@@ -4368,7 +4366,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="28"/>
-        <v>-2.4587603620343748E-2</v>
+        <v>-2.5001306618211264E-2</v>
       </c>
       <c r="P21">
         <v>1130</v>
@@ -4391,7 +4389,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="33"/>
-        <v>-1.1718041391218867</v>
+        <v>-1.2411718227856183</v>
       </c>
       <c r="V21">
         <f t="shared" si="34"/>
@@ -4399,7 +4397,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="35"/>
-        <v>2.1455077194737281E-2</v>
+        <v>2.4070429588702723E-2</v>
       </c>
       <c r="X21">
         <f t="shared" si="36"/>
@@ -4407,7 +4405,7 @@
       </c>
       <c r="Y21">
         <f t="shared" si="37"/>
-        <v>-1.4648636147368407E-2</v>
+        <v>-1.5515796387250492E-2</v>
       </c>
       <c r="Z21">
         <v>7.8</v>
@@ -4464,14 +4462,14 @@
       </c>
       <c r="BA21">
         <f t="shared" si="40"/>
-        <v>1.2133613569453645E-2</v>
+        <v>1.361128767204412E-2</v>
       </c>
       <c r="BB21">
         <f t="shared" si="41"/>
-        <v>-8.27647942326315E-3</v>
+        <v>-8.7664249587965266E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4511,7 +4509,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="24"/>
-        <v>-1.4634529121933402</v>
+        <v>-1.486044299266843</v>
       </c>
       <c r="L22">
         <f t="shared" si="25"/>
@@ -4519,7 +4517,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="26"/>
-        <v>3.3463975409487007E-2</v>
+        <v>3.4505119677866916E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="27"/>
@@ -4527,7 +4525,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="28"/>
-        <v>-2.6062887462000264E-2</v>
+        <v>-2.646522140387253E-2</v>
       </c>
       <c r="P22">
         <v>1130</v>
@@ -4550,7 +4548,7 @@
       </c>
       <c r="U22">
         <f t="shared" si="33"/>
-        <v>-1.2925835066218867</v>
+        <v>-1.3619511902856185</v>
       </c>
       <c r="V22">
         <f t="shared" si="34"/>
@@ -4558,7 +4556,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="35"/>
-        <v>2.6105814399858328E-2</v>
+        <v>2.8982985073756455E-2</v>
       </c>
       <c r="X22">
         <f t="shared" si="36"/>
@@ -4566,7 +4564,7 @@
       </c>
       <c r="Y22">
         <f t="shared" si="37"/>
-        <v>-1.5508000769950278E-2</v>
+        <v>-1.634025190587747E-2</v>
       </c>
       <c r="Z22">
         <v>7.8</v>
@@ -4623,14 +4621,14 @@
       </c>
       <c r="BA22">
         <f t="shared" si="40"/>
-        <v>1.4761280090347037E-2</v>
+        <v>1.6386881521099479E-2</v>
       </c>
       <c r="BB22">
         <f t="shared" si="41"/>
-        <v>-8.7620204350219062E-3</v>
+        <v>-9.23224232682077E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4641,21 +4639,19 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D23" s="5">
-        <f>-1.1293681225</f>
-        <v>-1.1293681225000001</v>
-      </c>
-      <c r="E23" s="5">
-        <f>-1.875</f>
-        <v>-1.875</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="e">
         <f t="shared" si="5"/>
-        <v>-1.7646376914062501E-2</v>
-      </c>
-      <c r="G23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" t="e">
         <f t="shared" si="23"/>
-        <v>-2.9296875E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H23">
         <f t="shared" si="21"/>
@@ -4668,25 +4664,25 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="e">
         <f t="shared" si="24"/>
-        <v>-0.50502811309334006</v>
-      </c>
-      <c r="L23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
         <f t="shared" si="25"/>
-        <v>-0.51378402772588272</v>
-      </c>
-      <c r="M23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
         <f t="shared" si="26"/>
-        <v>3.9852092971034295E-3</v>
-      </c>
-      <c r="N23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
         <f t="shared" si="27"/>
-        <v>4.1245941741598537E-3</v>
-      </c>
-      <c r="O23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" t="e">
         <f t="shared" si="28"/>
-        <v>4.0543027821859194E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P23">
         <v>1130</v>
@@ -4699,33 +4695,33 @@
         <f t="shared" si="30"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="e">
         <f t="shared" si="31"/>
-        <v>-9.9702029564453128E-3</v>
-      </c>
-      <c r="T23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" t="e">
         <f t="shared" si="32"/>
-        <v>-1.6552734374999999E-2</v>
-      </c>
-      <c r="U23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" t="e">
         <f t="shared" si="33"/>
-        <v>-0.3341587075218867</v>
-      </c>
-      <c r="V23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" t="e">
         <f t="shared" si="34"/>
-        <v>-0.88571976426427546</v>
-      </c>
-      <c r="W23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W23" t="e">
         <f t="shared" si="35"/>
-        <v>1.7447194033234034E-3</v>
-      </c>
-      <c r="X23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X23" t="e">
         <f t="shared" si="36"/>
-        <v>1.2257804700130683E-2</v>
-      </c>
-      <c r="Y23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y23" t="e">
         <f t="shared" si="37"/>
-        <v>4.6245464320803197E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z23">
         <v>7.8</v>
@@ -4776,20 +4772,20 @@
       <c r="AW23" t="s">
         <v>62</v>
       </c>
-      <c r="AZ23">
+      <c r="AZ23" t="e">
         <f t="shared" si="39"/>
-        <v>6.9371546100009188E-3</v>
-      </c>
-      <c r="BA23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA23" t="e">
         <f t="shared" si="40"/>
-        <v>9.972614173048061E-4</v>
-      </c>
-      <c r="BB23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB23" t="e">
         <f t="shared" si="41"/>
-        <v>2.6128687341253802E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -5103,7 +5099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -5417,7 +5413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5731,20 +5727,20 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f>SUM(C2:C8,C18:C23)</f>
+        <f>SUM(C2:C9,C18:C22)</f>
         <v>0.86756522962906291</v>
       </c>
       <c r="F30" s="2">
-        <f>SUM(F2:F8,F18:F23)</f>
-        <v>-0.54165568362750027</v>
+        <f>SUM(F2:F9,F18:F22)</f>
+        <v>-0.52205618171343782</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:J30" si="42">SUM(G2:G8,G18:G23)</f>
+        <f t="shared" ref="G30:J30" si="42">SUM(G2:G9,G18:G22)</f>
         <v>-1.1809436475607427</v>
       </c>
       <c r="H30" s="2">
@@ -5760,55 +5756,55 @@
         <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M30" s="2">
-        <f>SUM(M2:M8,M18:M23)</f>
-        <v>0.30591370736110468</v>
+        <f>SUM(M2:M9,M18:M22)</f>
+        <v>0.31025931890633734</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30:O30" si="43">SUM(N2:N8,N18:N23)</f>
+        <f t="shared" ref="N30:O30" si="43">SUM(N2:N9,N18:N22)</f>
         <v>0.97701243443385388</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="43"/>
-        <v>-0.17421775190066771</v>
+        <v>-0.18428766293549589</v>
       </c>
       <c r="R30" s="2">
-        <f>SUM(R2:R8,R18:R23)</f>
+        <f>SUM(R2:R9,R18:R22)</f>
         <v>0.15963800427770544</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" ref="S30:T30" si="44">SUM(S2:S8,S18:S23)</f>
-        <v>-0.1269456439899477</v>
+        <f t="shared" ref="S30:T30" si="44">SUM(S2:S9,S18:S22)</f>
+        <v>-0.11587192540850239</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="44"/>
         <v>-0.15792672250422904</v>
       </c>
       <c r="W30" s="2">
-        <f>SUM(W2:W8,W18:W23)</f>
-        <v>0.3312434487155268</v>
+        <f>SUM(W2:W9,W18:W22)</f>
+        <v>0.32361904237072153</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" ref="X30:Y30" si="45">SUM(X2:X8,X18:X23)</f>
+        <f t="shared" ref="X30:Y30" si="45">SUM(X2:X9,X18:X22)</f>
         <v>1.0970281047115558</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="45"/>
-        <v>-0.22935363755249905</v>
+        <v>-0.22432984277504525</v>
       </c>
       <c r="AZ30" s="2">
-        <f>SUM(AZ2:AZ8,AZ18:AZ23)</f>
+        <f>SUM(AZ2:AZ9,AZ18:AZ22)</f>
         <v>0.19352522919192533</v>
       </c>
       <c r="BA30" s="2">
-        <f>SUM(BA2:BA8,BA18:BA23)</f>
-        <v>0.14169414438886216</v>
+        <f t="shared" ref="BA30:BB30" si="46">SUM(BA2:BA9,BA18:BA22)</f>
+        <v>0.14741574679015049</v>
       </c>
       <c r="BB30" s="2">
-        <f>SUM(BB2:BB8,BB18:BB23)</f>
-        <v>-4.2443879072721007E-2</v>
+        <f t="shared" si="46"/>
+        <v>-5.2252090484207675E-2</v>
       </c>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="1"/>
       <c r="R35" s="4" t="s">
         <v>54</v>
@@ -5816,13 +5812,13 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="2"/>
       <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="7" t="s">
         <v>36</v>
       </c>
@@ -5832,7 +5828,7 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -5840,7 +5836,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>

--- a/src/Section Properties ITERATION004.xlsx
+++ b/src/Section Properties ITERATION004.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F4E9E6-548F-41E2-A70E-A5C09560BD83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15571FB6-71DB-4B12-A64C-2869144F4068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:BB39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ30" sqref="AZ30:BB30"/>
+      <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,8 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="s">
         <v>62</v>
